--- a/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>23.48</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.78</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515510</t>
+          <t>009608</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实中证500成长估值ETF</t>
+          <t>广发中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.98</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.98</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -650,25 +710,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009608</t>
+          <t>009609</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证500指数增强A</t>
+          <t>广发中证500指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>85.01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.77</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009609</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发中证500指数增强C</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.01</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
@@ -808,12 +808,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,17 +804,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -823,14 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -839,13 +882,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,95 +453,369 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160323</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏磐泰混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -787,370 +1061,96 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001178</t>
+          <t>160323</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源再融资主题精选股票</t>
+          <t>华夏磐泰混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.06</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.68</t>
+          <t>23.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2047</t>
+          <t>0.0291</t>
         </is>
       </c>
       <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006449</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浙商汇金量化精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.27</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0995</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源恒远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000935</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>浙商汇金转型成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0225</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013145</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商汇金先进制造混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>79.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0217</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>169201</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000883-湖北能源.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.39</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -532,6 +549,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -815,7 +1268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1061,7 +1514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
